--- a/3_output/sensitivity_hwws/incl_01visit/metareg_hw_s2.xlsx
+++ b/3_output/sensitivity_hwws/incl_01visit/metareg_hw_s2.xlsx
@@ -2277,44 +2277,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>57.489549808837602</v>
+        <v>63.603691670475939</v>
       </c>
       <c r="B2">
-        <v>89.220635887759187</v>
+        <v>79.037444675298019</v>
       </c>
       <c r="C2">
-        <v>68.893573532990899</v>
+        <v>73.623620461172521</v>
       </c>
       <c r="D2">
-        <v>89.480850336076216</v>
+        <v>78.540564559516852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0050273999045963996</v>
+        <v>0.0108119859306684</v>
       </c>
       <c r="B3">
-        <v>0.26340132495728891</v>
+        <v>0.10318745914682</v>
       </c>
       <c r="C3">
-        <v>0.31313793314743188</v>
+        <v>0.49517571282854822</v>
       </c>
       <c r="D3">
-        <v>0.98384482529748429</v>
+        <v>0.79738158996773412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>69.291771011738007</v>
+        <v>72.963275013085763</v>
       </c>
       <c r="B4">
-        <v>88.990855210812242</v>
+        <v>78.362716300089545</v>
       </c>
       <c r="C4">
-        <v>69.291771011738007</v>
+        <v>72.963275013085763</v>
       </c>
       <c r="D4">
-        <v>88.990855210812242</v>
+        <v>78.362716300089545</v>
       </c>
     </row>
     <row r="6">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.25261622369136089</v>
+        <v>0.25477800827109737</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.34235978980280313</v>
+        <v>-0.35321131075165679</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="39">
-        <v>0.15133235000798895</v>
+        <v>0.18559933817236676</v>
       </c>
       <c r="K6" s="40">
-        <v>-0.38652937478818561</v>
+        <v>-0.38035579585667817</v>
       </c>
       <c r="N6" s="73" t="s">
         <v>1</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="75">
-        <v>0.090196379536171961</v>
+        <v>0.072593102260811948</v>
       </c>
       <c r="Q6" s="76">
-        <v>-0.20095422344052344</v>
+        <v>-0.20469075698195577</v>
       </c>
       <c r="T6" s="109" t="s">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="111">
-        <v>-0.0026432801900404699</v>
+        <v>0.027905841267802233</v>
       </c>
       <c r="W6" s="112">
-        <v>-0.28314844079255458</v>
+        <v>-0.27695320059744805</v>
       </c>
     </row>
     <row r="7">
@@ -2373,40 +2373,40 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7">
-        <v>0.090050499617891244</v>
+        <v>0.099963222049691422</v>
       </c>
       <c r="E7" s="8">
-        <v>0.079121086235114394</v>
+        <v>0.08567235610003783</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="43">
-        <v>0.13531292580637322</v>
+        <v>0.11389303465953239</v>
       </c>
       <c r="K7" s="44">
-        <v>0.1112044269883697</v>
+        <v>0.090682577807770726</v>
       </c>
       <c r="N7" s="77" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="78"/>
       <c r="P7" s="79">
-        <v>0.089422024269050673</v>
+        <v>0.1064258920241485</v>
       </c>
       <c r="Q7" s="80">
-        <v>0.061628910491404086</v>
+        <v>0.067191229093615454</v>
       </c>
       <c r="T7" s="113" t="s">
         <v>2</v>
       </c>
       <c r="U7" s="114"/>
       <c r="V7" s="115">
-        <v>0.13053949448307314</v>
+        <v>0.10869415294136432</v>
       </c>
       <c r="W7" s="116">
-        <v>0.099204982923377497</v>
+        <v>0.078386944730594807</v>
       </c>
     </row>
     <row r="8">
@@ -2415,40 +2415,40 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11">
-        <v>2.8052728720360265</v>
+        <v>2.5487174487477802</v>
       </c>
       <c r="E8" s="12">
-        <v>-4.327036016485601</v>
+        <v>-4.122815419471122</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="47">
-        <v>1.1183879818291624</v>
+        <v>1.6295934051383434</v>
       </c>
       <c r="K8" s="48">
-        <v>-3.4758452091894752</v>
+        <v>-4.194364618338903</v>
       </c>
       <c r="N8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="82"/>
       <c r="P8" s="83">
-        <v>1.0086595586875939</v>
+        <v>0.68210001231974882</v>
       </c>
       <c r="Q8" s="84">
-        <v>-3.2607135488554881</v>
+        <v>-3.0463910207203755</v>
       </c>
       <c r="T8" s="117" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="118"/>
       <c r="V8" s="119">
-        <v>-0.020248892494242193</v>
+        <v>0.25673728082554909</v>
       </c>
       <c r="W8" s="120">
-        <v>-2.8541755912729569</v>
+        <v>-3.5331546796382773</v>
       </c>
     </row>
     <row r="9">
@@ -2457,40 +2457,40 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15">
-        <v>0.0050273999045963771</v>
+        <v>0.010811985930668361</v>
       </c>
       <c r="E9" s="16">
-        <v>1.511292571339687e-05</v>
+        <v>3.7426959904092408e-05</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="51">
-        <v>0.2634013249572888</v>
+        <v>0.10318745914682001</v>
       </c>
       <c r="K9" s="52">
-        <v>0.00050924612138699842</v>
+        <v>2.7363752135729091e-05</v>
       </c>
       <c r="N9" s="85" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="87">
-        <v>0.31313793314743171</v>
+        <v>0.49517571282854839</v>
       </c>
       <c r="Q9" s="88">
-        <v>0.0011113224818855804</v>
+        <v>0.0023160642080769229</v>
       </c>
       <c r="T9" s="121" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="122"/>
       <c r="V9" s="123">
-        <v>0.98384482529748429</v>
+        <v>0.79738158996773412</v>
       </c>
       <c r="W9" s="124">
-        <v>0.0043148675122666102</v>
+        <v>0.00041063214419773244</v>
       </c>
     </row>
     <row r="10">
@@ -2499,40 +2499,40 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>0.076120487650456176</v>
+        <v>0.058853693275121993</v>
       </c>
       <c r="E10" s="20">
-        <v>-0.49743426924131518</v>
+        <v>-0.52112604317842126</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="55">
-        <v>-0.11387611121524299</v>
+        <v>-0.037626907850288799</v>
       </c>
       <c r="K10" s="56">
-        <v>-0.60448604660680416</v>
+        <v>-0.55809038238515996</v>
       </c>
       <c r="N10" s="89" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="90"/>
       <c r="P10" s="91">
-        <v>-0.085067567455833992</v>
+        <v>-0.13599781312906767</v>
       </c>
       <c r="Q10" s="92">
-        <v>-0.32174466841011812</v>
+        <v>-0.33638314608242193</v>
       </c>
       <c r="T10" s="125" t="s">
         <v>5</v>
       </c>
       <c r="U10" s="126"/>
       <c r="V10" s="127">
-        <v>-0.25849598793692885</v>
+        <v>-0.1851307838273602</v>
       </c>
       <c r="W10" s="128">
-        <v>-0.4775866344092855</v>
+        <v>-0.43058878912754561</v>
       </c>
     </row>
     <row r="11">
@@ -2541,40 +2541,40 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23">
-        <v>0.42911195973226557</v>
+        <v>0.45070232326707271</v>
       </c>
       <c r="E11" s="24">
-        <v>-0.18728531036429111</v>
+        <v>-0.18529657832489227</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="59">
-        <v>0.41654081123122089</v>
+        <v>0.40882558419502235</v>
       </c>
       <c r="K11" s="60">
-        <v>-0.16857270296956703</v>
+        <v>-0.20262120932819641</v>
       </c>
       <c r="N11" s="93" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="94"/>
       <c r="P11" s="95">
-        <v>0.26546032652817792</v>
+        <v>0.28118401765069156</v>
       </c>
       <c r="Q11" s="96">
-        <v>-0.080163778470928759</v>
+        <v>-0.07299836788148964</v>
       </c>
       <c r="T11" s="129" t="s">
         <v>6</v>
       </c>
       <c r="U11" s="130"/>
       <c r="V11" s="131">
-        <v>0.25320942755684794</v>
+        <v>0.24094246636296468</v>
       </c>
       <c r="W11" s="132">
-        <v>-0.088710247175823626</v>
+        <v>-0.12331761206735048</v>
       </c>
     </row>
     <row r="12">
